--- a/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1165264910850387</v>
+        <v>0.1186035875010006</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1422545077908822</v>
+        <v>0.1365583055446469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.077506814903783</v>
+        <v>0.08030153660439587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08232797296445321</v>
+        <v>0.08205425515189337</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1462040801846066</v>
+        <v>0.1479326357066821</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1659101502727672</v>
+        <v>0.1690593785622566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09315754855783186</v>
+        <v>0.0921190282414205</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1195905753748277</v>
+        <v>0.1202667944095635</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1423285784045779</v>
+        <v>0.1414290554703733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1638592395711023</v>
+        <v>0.1613990973206325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09272668162731976</v>
+        <v>0.09253584045011362</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1061852291626179</v>
+        <v>0.1064548237265612</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1799184941365876</v>
+        <v>0.1849800042833862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2033324773047757</v>
+        <v>0.2023736947818711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1331191032944169</v>
+        <v>0.1339428508340587</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1240251736232889</v>
+        <v>0.124625645589867</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2103675390241614</v>
+        <v>0.2112389103762735</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.23065456862189</v>
+        <v>0.2320395491676978</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1495817834839372</v>
+        <v>0.1476504372310906</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1567162441959732</v>
+        <v>0.1567629686562819</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1863544283276215</v>
+        <v>0.1865983581770781</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2076039617490163</v>
+        <v>0.2092353353588854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1312400407760319</v>
+        <v>0.1320676844847859</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.133301028975862</v>
+        <v>0.134368726154299</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1170814731962104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09275583700791257</v>
+        <v>0.09275583700791258</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1536321078007546</v>
@@ -821,7 +821,7 @@
         <v>0.119183048496489</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09086238575603234</v>
+        <v>0.09086238575603232</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1454175943111908</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1108613219613878</v>
+        <v>0.1124045048430659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1168008935773122</v>
+        <v>0.1156200547276848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09480145703815493</v>
+        <v>0.09626670954379546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.076327745514425</v>
+        <v>0.07604001165423183</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.130445598328214</v>
+        <v>0.1276744918793291</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1629786175644266</v>
+        <v>0.1613131525616356</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09593381854654046</v>
+        <v>0.09635920890870989</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07659390255916179</v>
+        <v>0.07706184323831332</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1286034211416881</v>
+        <v>0.1260989124065552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.145683626155077</v>
+        <v>0.1451728030030124</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1016906561273212</v>
+        <v>0.1030955863385371</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08053598674815114</v>
+        <v>0.08089803937516739</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1636356883473133</v>
+        <v>0.1648091153603709</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1670025632839563</v>
+        <v>0.1644011415729984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1425278340274322</v>
+        <v>0.14417794044828</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1117070607388336</v>
+        <v>0.111854255917407</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1817303644713704</v>
+        <v>0.1795600562486548</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2136574234726921</v>
+        <v>0.2128146328468686</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1425681522544974</v>
+        <v>0.1422202580014839</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1042135749792472</v>
+        <v>0.1050169094678421</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1636762671902246</v>
+        <v>0.1652509790311829</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1812298814304746</v>
+        <v>0.1816051212984624</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1355630360532109</v>
+        <v>0.1376564647416106</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.103004564599123</v>
+        <v>0.1033841752249794</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1160728009392718</v>
+        <v>0.1172556479298623</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1041007002292964</v>
+        <v>0.1048499869864095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05879893007195244</v>
+        <v>0.05920981454012783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08461456993303691</v>
+        <v>0.0829415084327299</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1385974594396986</v>
+        <v>0.1387214411777759</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1425018552854059</v>
+        <v>0.1424889668062686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08003015829417018</v>
+        <v>0.08038296308170188</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1040770516337918</v>
+        <v>0.1051203036830582</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1363289362869308</v>
+        <v>0.1349416288985557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1344297820899311</v>
+        <v>0.1336285817827592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07617986931423253</v>
+        <v>0.07550203973577915</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09944977585677671</v>
+        <v>0.10013520302029</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1816906515938719</v>
+        <v>0.1786823641699848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1647351654923959</v>
+        <v>0.1641228597064366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.10904558121359</v>
+        <v>0.1088889792511594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1286426171785435</v>
+        <v>0.1298125017092632</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.194921099844346</v>
+        <v>0.2027514567355439</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2053406404011656</v>
+        <v>0.2046613877568394</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1348837793176972</v>
+        <v>0.1343233890613039</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1448098627546472</v>
+        <v>0.1461237143931042</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1815529506442181</v>
+        <v>0.1787232265557071</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.175918545961413</v>
+        <v>0.1753439896460852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1121355080745993</v>
+        <v>0.1120581579689365</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1290536697934688</v>
+        <v>0.1327380193716195</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09727748527935126</v>
+        <v>0.09913578778836214</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.13275177743876</v>
+        <v>0.1351262382273798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09442703684974803</v>
+        <v>0.09246382422064317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09837694098507827</v>
+        <v>0.09930456994581413</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1312204083521369</v>
+        <v>0.1315037152467622</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1514157552266611</v>
+        <v>0.1514907106466202</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0977057602754946</v>
+        <v>0.0989570594953685</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1209641005857541</v>
+        <v>0.1197991709396594</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1220261570809878</v>
+        <v>0.1220910061139453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1503295185460222</v>
+        <v>0.1507881680512298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1022178015732195</v>
+        <v>0.1020360779962669</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1153156624511141</v>
+        <v>0.1153567034268494</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1448181050188658</v>
+        <v>0.1460237090530061</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1870048291037288</v>
+        <v>0.1884022743499202</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1413915505078819</v>
+        <v>0.1405134605581511</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1392823702722223</v>
+        <v>0.1409167988168697</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1837209241127885</v>
+        <v>0.1817430553722947</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2022158722582622</v>
+        <v>0.1983289189355488</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1437949438734688</v>
+        <v>0.1445314745393468</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1544703364023758</v>
+        <v>0.1551526295772731</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1582869356740896</v>
+        <v>0.1570097564862609</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1887348263832669</v>
+        <v>0.1866217671399444</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1349828253038057</v>
+        <v>0.1335835216416226</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1413538545004421</v>
+        <v>0.1412272532382646</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1356881827708394</v>
+        <v>0.1367755886967627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09535404479675966</v>
+        <v>0.09529982325498546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09336382137377135</v>
+        <v>0.09353810171466535</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1687165810683336</v>
+        <v>0.1683309873249518</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1037821014008723</v>
+        <v>0.1045585965468454</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1128419101089293</v>
+        <v>0.1118747752307071</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1575713248318974</v>
+        <v>0.1575813024857926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1030703796187409</v>
+        <v>0.1032979491098011</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.106213935105234</v>
+        <v>0.1062433508840256</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1635878062444834</v>
+        <v>0.1653941477088716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1200427092386084</v>
+        <v>0.118119105360795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1138282934511194</v>
+        <v>0.1137421539346241</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.196065453304522</v>
+        <v>0.1952558437214867</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.129221918957221</v>
+        <v>0.1289392457201006</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1297661371702448</v>
+        <v>0.1299101034993521</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1765904805406887</v>
+        <v>0.1773289951869211</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.121092266250732</v>
+        <v>0.1207856635563722</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1193907724463658</v>
+        <v>0.1196059855734838</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>55681</v>
+        <v>56673</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>86199</v>
+        <v>82748</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>40691</v>
+        <v>42158</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54298</v>
+        <v>54117</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>78673</v>
+        <v>79603</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>105486</v>
+        <v>107488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>50712</v>
+        <v>50146</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>84449</v>
+        <v>84926</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>144597</v>
+        <v>143684</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>203473</v>
+        <v>200418</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>99158</v>
+        <v>98954</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>145015</v>
+        <v>145383</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>85972</v>
+        <v>88390</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>123210</v>
+        <v>122629</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69887</v>
+        <v>70319</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81798</v>
+        <v>82194</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>113200</v>
+        <v>113669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>146650</v>
+        <v>147531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>81427</v>
+        <v>80375</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>110665</v>
+        <v>110698</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>189325</v>
+        <v>189573</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>257793</v>
+        <v>259818</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>140342</v>
+        <v>141227</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>182047</v>
+        <v>183505</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>80056</v>
+        <v>81170</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>101266</v>
+        <v>100242</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>77391</v>
+        <v>78587</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77563</v>
+        <v>77270</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>104908</v>
+        <v>102679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>146489</v>
+        <v>144992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>83114</v>
+        <v>83483</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>80254</v>
+        <v>80744</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>196294</v>
+        <v>192472</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>257251</v>
+        <v>256349</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>171117</v>
+        <v>173481</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>166223</v>
+        <v>166971</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>118166</v>
+        <v>119013</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>144791</v>
+        <v>142535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>116352</v>
+        <v>117699</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113514</v>
+        <v>113664</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>146152</v>
+        <v>144407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>192040</v>
+        <v>191283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>123517</v>
+        <v>123216</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109193</v>
+        <v>110035</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>249828</v>
+        <v>252231</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>320020</v>
+        <v>320682</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>228114</v>
+        <v>231637</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>212598</v>
+        <v>213381</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>63270</v>
+        <v>63915</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>66211</v>
+        <v>66688</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32361</v>
+        <v>32587</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65492</v>
+        <v>64197</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>81025</v>
+        <v>81098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>96687</v>
+        <v>96678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46397</v>
+        <v>46601</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>82777</v>
+        <v>83607</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>154011</v>
+        <v>152443</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>176712</v>
+        <v>175659</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>86091</v>
+        <v>85325</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>156072</v>
+        <v>157147</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>99038</v>
+        <v>97398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>104777</v>
+        <v>104388</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60014</v>
+        <v>59928</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>99570</v>
+        <v>100476</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>113953</v>
+        <v>118530</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>139323</v>
+        <v>138862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>78197</v>
+        <v>77872</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115174</v>
+        <v>116219</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>205100</v>
+        <v>201903</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>231250</v>
+        <v>230495</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>126724</v>
+        <v>126637</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>202531</v>
+        <v>208313</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69037</v>
+        <v>70355</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>106955</v>
+        <v>108868</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>72958</v>
+        <v>71441</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>93257</v>
+        <v>94137</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106813</v>
+        <v>107044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>141301</v>
+        <v>141371</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85672</v>
+        <v>86770</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>130178</v>
+        <v>128924</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>185930</v>
+        <v>186028</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>261405</v>
+        <v>262202</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>168606</v>
+        <v>168306</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>233414</v>
+        <v>233497</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>102776</v>
+        <v>103631</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>150665</v>
+        <v>151791</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>109244</v>
+        <v>108566</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132034</v>
+        <v>133583</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>149548</v>
+        <v>147938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>188708</v>
+        <v>185081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>126085</v>
+        <v>126731</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>166236</v>
+        <v>166971</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>241180</v>
+        <v>239234</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>328187</v>
+        <v>324512</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>222651</v>
+        <v>220343</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>286118</v>
+        <v>285862</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>395485</v>
+        <v>398654</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>254055</v>
+        <v>253910</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>317220</v>
+        <v>317812</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>530837</v>
+        <v>529623</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>297576</v>
+        <v>299802</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>409102</v>
+        <v>405596</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>955037</v>
+        <v>955097</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>570149</v>
+        <v>571408</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>745954</v>
+        <v>746160</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>476803</v>
+        <v>482068</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>319834</v>
+        <v>314709</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>386752</v>
+        <v>386459</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>616885</v>
+        <v>614338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>370520</v>
+        <v>369709</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>470460</v>
+        <v>470982</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1070311</v>
+        <v>1074787</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>669840</v>
+        <v>668144</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>838496</v>
+        <v>840008</v>
       </c>
     </row>
     <row r="24">
